--- a/medicine/Mort/Cimetière_de_Borissovo/Cimetière_de_Borissovo.xlsx
+++ b/medicine/Mort/Cimetière_de_Borissovo/Cimetière_de_Borissovo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borissovo</t>
+          <t>Cimetière_de_Borissovo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Borissovo (en russe : Борисовское кладбище) est l'un des cimetières de Moscou (ru). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borissovo</t>
+          <t>Cimetière_de_Borissovo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé 4 rue Borissovskie Proudy (ru) à Brateïevo dans le district administratif sud de Moscou.
-Il est accessible à partir de la station de métro Borissovo et par les bus nos 864, C827 jusqu'à l'arrêt Borissovskie Proudy[1].
+Il est accessible à partir de la station de métro Borissovo et par les bus nos 864, C827 jusqu'à l'arrêt Borissovskie Proudy.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borissovo</t>
+          <t>Cimetière_de_Borissovo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de l'ancien village de Borissov (ru), connu depuis la fin du XVIe siècle.
 	Le village de Borissovo sur une carte de 1818
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borissovo</t>
+          <t>Cimetière_de_Borissovo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est l'un des plus anciens cimetières de Moscou, fondé en 1550.
 En 1960, le village de Borissovo et le cimetière sont rattachés au quartier Brateïevo à Moscou.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borissovo</t>
+          <t>Cimetière_de_Borissovo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,13 +629,15 @@
           <t>Personnalités inhumées dans le cimetière de Borissov</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gennadi Gourguenovitch Arakelov (ru) (1939-2019), scientifique
 Iouri Alexandrovitch Kouvaldine (ru) (1946-2023), écrivain
 Fridrikh Fedorovitch Lavrinenko (ru) (1932-2007), militaire
 Viatcheslav Vitalievitch Markine (ru) (1923-2010), militaire
-Alexeï Navalny (1976-2024), avocat, chef de l'opposition russe et principal opposant à Vladimir Poutine[2],[3]
+Alexeï Navalny (1976-2024), avocat, chef de l'opposition russe et principal opposant à Vladimir Poutine,
 Lioubov Ilinitchna Olbinskaïa (ru) (1931-2017), médecin pharmacologue
 Iouri Borissovitch Cherstnev (ru) (1941-2017), acteur</t>
         </is>
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Borissovo</t>
+          <t>Cimetière_de_Borissovo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Site du cimetière Borissovo</t>
         </is>
